--- a/public/PeminjamanData/importPeminjaman.xlsx
+++ b/public/PeminjamanData/importPeminjaman.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuliah Ryan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2A4625-6D78-41A9-9333-5EDB8814F8AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4123E9F3-D359-413B-B372-C0F26D6831CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{C797D73E-5EC0-4A94-8E32-EDC396A70843}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="40">
   <si>
     <t>Aditiya Putra</t>
   </si>
@@ -136,32 +136,28 @@
   </si>
   <si>
     <t>2024-06-13 16:15:26</t>
+  </si>
+  <si>
+    <t>Bagus</t>
+  </si>
+  <si>
+    <t>Rusak Sedang</t>
+  </si>
+  <si>
+    <t>Rusak Berat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -185,10 +181,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -504,361 +498,435 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A83701-A55F-4367-9BAA-A99579B1F551}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="12.5703125" style="3"/>
-    <col min="8" max="8" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="12.5703125" style="3"/>
+    <col min="1" max="7" width="12.5703125" style="1"/>
+    <col min="8" max="8" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2"/>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3">
-        <v>14</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3">
-        <v>12</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3">
-        <v>11</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>12</v>
-      </c>
-      <c r="D12" s="3">
-        <v>12</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25"/>
+      <c r="J12"/>
+      <c r="K12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
